--- a/data/mat_mapping.xlsx
+++ b/data/mat_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>inox</t>
+          <t>alum</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inox</t>
+          <t>aluminum</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alum</t>
+          <t>cast aluminum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,19 +520,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cast aluminum</t>
+          <t>cast iron</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>aluminum</t>
+          <t>iron</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cast iron</t>
+          <t>iron ore</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,982 +544,502 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>iron ore</t>
+          <t>mfc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iron</t>
+          <t>melamine faced chipboard</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pine</t>
+          <t>mdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pine</t>
+          <t>fiberboard</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rubber</t>
+          <t>hdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rubber</t>
+          <t>fiberboard</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>acacia</t>
+          <t>pvc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>acacia</t>
+          <t>polyvinyl chloride</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cherry</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cherry</t>
+          <t>polycarbonate</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>birch</t>
+          <t>ps</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>birch</t>
+          <t>polystyrene</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>walnut</t>
+          <t>psu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>walnut</t>
+          <t>polysulfone</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>teak</t>
+          <t>pei</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teak</t>
+          <t>polyetherimide</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ash</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ash</t>
+          <t>polypropylene</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>alder</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alder</t>
+          <t>polyethylene terephthalate</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hickory</t>
+          <t>abs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hickory</t>
+          <t>acrylonitrile butadiene styrene</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>maple</t>
+          <t>pbt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>maple</t>
+          <t>polybutylene terephthalate</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bamboo</t>
+          <t>peek</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bamboo</t>
+          <t>polyetheretherketone</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>beech</t>
+          <t>tpe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>beech</t>
+          <t>thermoplastic elastomer</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mfc</t>
+          <t>polymethyl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>melamine faced chipboard</t>
+          <t>polymethyl methacrylate</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mdf</t>
+          <t>pmma</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fiberboard</t>
+          <t>polymethyl methacrylate</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hdf</t>
+          <t>acrylic</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>fiberboard</t>
+          <t>polymethyl methacrylate</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>polymers</t>
+          <t>eva</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>polymers</t>
+          <t>ethylene-vinyl acetate</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pvc</t>
+          <t>pu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>polyvinyl chloride</t>
+          <t>polyurethane</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>polycarbonate</t>
+          <t>polyethylene</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ps</t>
+          <t>epp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>polystyrene</t>
+          <t>expanded polypropylene</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>psu</t>
+          <t>polyvinyl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>polysulfone</t>
+          <t>vinyl</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pei</t>
+          <t>vinyl synthetic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>polyetherimide</t>
+          <t>vinyl</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pp</t>
+          <t>polyamide</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>polypropylene</t>
+          <t>nylon</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>polyethylene terephthalate</t>
+          <t>nylon</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>abs</t>
+          <t>pom</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>acrylonitrile butadiene styrene</t>
+          <t>polyoxymethylene</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pbt</t>
+          <t>acetal</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>polybutylene terephthalate</t>
+          <t>polyoxymethylene</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>peek</t>
+          <t>al</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>polyetheretherketone</t>
+          <t>aluminum</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tpe</t>
+          <t>cu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>thermoplastic elastomer</t>
+          <t>bronze</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>polymethyl</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>polymethyl methacrylate</t>
+          <t>epoxy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pmma</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>polymethyl methacrylate</t>
+          <t>gold</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>acrylic</t>
+          <t>hdpe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>polymethyl methacrylate</t>
+          <t>polyethylene</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eva</t>
+          <t>ldpe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ethylene-vinyl acetate</t>
+          <t>polyethylene</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pu</t>
+          <t>ni</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>polyurethane</t>
+          <t>nickel</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>ag</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>polyethylene</t>
+          <t>silver</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>epp</t>
+          <t>fe</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>expanded polypropylene</t>
+          <t>steel</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>memory foam</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>memory foam</t>
+          <t>titanium</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>silicone</t>
+          <t>zn</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>silicone</t>
+          <t>zinc</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>ppc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>polypropylene carbonate</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>polyvinyl</t>
+          <t>epe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>polythene</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vinyl synthetic</t>
+          <t>nbr</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>nitrile-butadiene rubber</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>natural rubber</t>
+          <t>tpu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>natural rubber</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>latex</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>latex</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>synthetic rubber</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>synthetic rubber</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>neophere</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>neophere</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>silicon</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>silicon</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>polyester</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>polyester</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>cotton</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>cotton</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>canvas</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>canvas</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>rattan</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>rattan</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>nylon</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>nylon</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>polyamide</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>nylon</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>pa</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>nylon</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>silk</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>silk</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>wool</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>wool</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>woven</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>woven</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>knits</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>knits</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>synthetic knit</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>synthetic knit</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>fleece</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>fleece</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>natural knit</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>natural knit</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>genuine leather</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>genuine leather</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>microfiber</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>microfiber</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>feather</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>feather</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>padding</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>padding</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>pom</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>polyoxymethylene</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>acetal</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>polyoxymethylene</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>al</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>aluminum</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>cu</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>ep</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>epoxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>au</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>hdpe</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>polyethylene</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ldpe</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>polyethylene</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>ni</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>nickel</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>ag</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>silver</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>fe</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ti</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>titanium</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>zn</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>zinc</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ppc</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>polypropylene carbonate</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>epe</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>polythene</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>nbr</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>nitrile-butadiene rubber</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>tpu</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
         <is>
           <t>thermoplastic polyurethane</t>
         </is>
